--- a/etc/DB.xlsx
+++ b/etc/DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>게시판 분류 코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -295,6 +295,14 @@
   </si>
   <si>
     <t>FOREIGN_KEY(BOARD.NUMBER)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -382,14 +390,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,6 +401,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M17"/>
+  <dimension ref="B3:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -725,346 +733,359 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3" t="s">
+      <c r="F5" s="2"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3" t="s">
+      <c r="F6" s="2"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3" t="s">
+      <c r="F7" s="2"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="3" t="s">
+      <c r="F8" s="2"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3" t="s">
+      <c r="F9" s="2"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="3" t="s">
+      <c r="F10" s="2"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="7"/>
+      <c r="J12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I13" s="7"/>
+      <c r="J13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="16" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3" t="s">
+      <c r="F18" s="2"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="I3:I12"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B16:B20"/>
     <mergeCell ref="B3:B11"/>
+    <mergeCell ref="I3:I13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/etc/DB.xlsx
+++ b/etc/DB.xlsx
@@ -712,7 +712,7 @@
   <dimension ref="B3:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/etc/DB.xlsx
+++ b/etc/DB.xlsx
@@ -310,7 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +337,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -380,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,6 +414,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -712,7 +726,7 @@
   <dimension ref="B3:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -729,7 +743,7 @@
     <col min="10" max="10" width="11.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="20.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -850,13 +864,13 @@
       </c>
       <c r="F7" s="2"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="10" t="s">
         <v>42</v>
       </c>
       <c r="M7" s="2"/>

--- a/etc/DB.xlsx
+++ b/etc/DB.xlsx
@@ -14,15 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
-  <si>
-    <t>게시판 분류 코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
   <si>
     <t>게시판 제목</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -303,6 +295,89 @@
   </si>
   <si>
     <t>LEVEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 댓글
+(COMMENT)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY
+AUTO_INCREMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT_WRITER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT_CONTENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOREIGN KEY
+CASCADE ON DELETE ON UPDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT_NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 분류 코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,6 +495,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,16 +804,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M20"/>
+  <dimension ref="B3:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" style="1" customWidth="1"/>
@@ -748,358 +829,430 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I12" s="11"/>
+      <c r="J12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I13" s="11"/>
+      <c r="J13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="16" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="I17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I12" s="7"/>
-      <c r="J12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I13" s="7"/>
-      <c r="J13" s="3" t="s">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="24" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="C24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25" s="11"/>
+      <c r="C25" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="16" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="2"/>
+      <c r="D25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="11"/>
+      <c r="C27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="11"/>
+      <c r="C28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B3:B11"/>
     <mergeCell ref="I3:I13"/>
+    <mergeCell ref="B24:B28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/etc/DB.xlsx
+++ b/etc/DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
   <si>
     <t>게시판 제목</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -52,14 +52,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>검색 키워드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEARCH_KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NAME</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -189,10 +181,6 @@
   </si>
   <si>
     <t>VARCHAR(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -463,7 +451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -495,6 +483,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -807,7 +801,7 @@
   <dimension ref="B3:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -829,420 +823,409 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>50</v>
+      <c r="B3" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I12" s="13"/>
+      <c r="J12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I13" s="13"/>
+      <c r="J13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="K13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="16" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I12" s="11"/>
-      <c r="J12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I13" s="11"/>
-      <c r="J13" s="3" t="s">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="24" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="D25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
+      <c r="C26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="16" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="24" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="D26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="8" t="s">
+      <c r="E27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -1250,9 +1233,9 @@
   <mergeCells count="5">
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B3:B11"/>
     <mergeCell ref="I3:I13"/>
     <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B3:B10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
